--- a/biology/Microbiologie/Euglyphida/Euglyphida.xlsx
+++ b/biology/Microbiologie/Euglyphida/Euglyphida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euglyphida sont un ordre de l'embranchement des Cercozoa, caractérisé par la présence d'une thèque.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juillet 2017) :
 famille des Cyphoderiidae
 genre Corythionella
 genre Cyphoderia
@@ -534,7 +548,7 @@
 famille des Trinematidae
 genre Corythion
 genre Trinema
-Selon World Register of Marine Species                               (21 juillet 2017)[3] :
+Selon World Register of Marine Species                               (21 juillet 2017) :
 famille des Cyphoderiidae de Saedeleer, 1934
 famille des Euglyphidae Wallich, 1864, emend Lara &amp; al., 2007
 famille des Paulinellidae de Saedeleer, 1934, emend. Adl &amp; al., 2012
@@ -566,7 +580,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Herbert Copeland, « The classification of lower organisms », International Bulletin of Bacteriological Nomenclature and Taxonomy, vol. 6, no 3,‎ 1er juillet 1956, p. 121–128 (ISSN 0096-266X et 2331-3730, DOI 10.1099/0096266X-6-3-121, lire en ligne)</t>
         </is>
